--- a/pricing/ab3-sizing-20210303-2300mt.xlsx
+++ b/pricing/ab3-sizing-20210303-2300mt.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernstric/Documents/GitHub/AWS-Builder-EKS/pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE44BAC-3DC5-C04D-9F61-6ED2FA3B4BEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A09363-B052-6A4D-AF61-AB0A5761ED5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52780" yWindow="1500" windowWidth="39400" windowHeight="20120" xr2:uid="{5EEDFC2B-18EE-8A46-B39A-959F96F9001C}"/>
+    <workbookView xWindow="5960" yWindow="460" windowWidth="43280" windowHeight="27480" activeTab="2" xr2:uid="{5EEDFC2B-18EE-8A46-B39A-959F96F9001C}"/>
   </bookViews>
   <sheets>
     <sheet name="EKS-MN-Fargate" sheetId="1" r:id="rId1"/>
     <sheet name="ECR" sheetId="2" r:id="rId2"/>
     <sheet name="RDS" sheetId="3" r:id="rId3"/>
     <sheet name="Secrets Manager" sheetId="4" r:id="rId4"/>
+    <sheet name="Cloud9" sheetId="5" r:id="rId5"/>
+    <sheet name="Certificate Manager" sheetId="6" r:id="rId6"/>
+    <sheet name="CloudWatch" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="171">
   <si>
     <t>EKS - max nuber pf pods / node (4 to 737)</t>
   </si>
@@ -273,12 +276,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>ESB Storage price</t>
-  </si>
-  <si>
-    <t>Total ESB Storage price</t>
-  </si>
-  <si>
     <t>Total Storage Cost</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t xml:space="preserve">total number of servers </t>
   </si>
   <si>
-    <t>number of ssh keys per server</t>
-  </si>
-  <si>
     <t>number of credentials per db</t>
   </si>
   <si>
@@ -511,6 +505,45 @@
   </si>
   <si>
     <t>https://aws.amazon.com/secrets-manager/pricing/</t>
+  </si>
+  <si>
+    <t>EBS Storage price</t>
+  </si>
+  <si>
+    <t>Total EBS Storage price</t>
+  </si>
+  <si>
+    <t>number of ssh keys per cluster</t>
+  </si>
+  <si>
+    <t>9 adnubs</t>
+  </si>
+  <si>
+    <t>duty cyle</t>
+  </si>
+  <si>
+    <t>3 shifts</t>
+  </si>
+  <si>
+    <t>Cloud 9 ms is zero cost</t>
+  </si>
+  <si>
+    <t>just pay for ec2 and eBS etc</t>
+  </si>
+  <si>
+    <t>consider provisioned IOPS</t>
+  </si>
+  <si>
+    <t>need to add another scenario using provisioned and reserved instances</t>
+  </si>
+  <si>
+    <t>consider reserved instances (1 year, 3 year)</t>
+  </si>
+  <si>
+    <t>read to write ratio</t>
+  </si>
+  <si>
+    <t>TB</t>
   </si>
 </sst>
 </file>
@@ -521,7 +554,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -583,8 +616,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,8 +637,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -717,12 +763,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -875,7 +995,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -894,9 +1013,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1214,20 +1351,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61BF14B-0124-4B48-A35F-51EF12A015A9}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="2.5" customWidth="1"/>
     <col min="7" max="7" width="46.5" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
@@ -1247,33 +1385,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1281,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" t="s">
+      <c r="M10" s="37" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1348,7 +1488,9 @@
       <c r="G13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
@@ -1375,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1387,7 +1529,7 @@
       </c>
       <c r="O14" s="39">
         <f>H14</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="10"/>
@@ -1409,7 +1551,7 @@
       </c>
       <c r="I15" s="9">
         <f>H15*H14</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>11</v>
@@ -1426,7 +1568,7 @@
       </c>
       <c r="P15" s="9">
         <f>O15*O14</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>11</v>
@@ -1442,7 +1584,7 @@
       </c>
       <c r="I16" s="9">
         <f>I15*H16</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>11</v>
@@ -1459,7 +1601,7 @@
       </c>
       <c r="P16" s="9">
         <f>P15*O16</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>11</v>
@@ -1517,7 +1659,7 @@
       </c>
       <c r="D19" s="61">
         <f>H44</f>
-        <v>2182.3500000000004</v>
+        <v>4364.7000000000007</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>17</v>
@@ -1546,11 +1688,11 @@
     </row>
     <row r="20" spans="3:17" ht="19" x14ac:dyDescent="0.25">
       <c r="C20" s="60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="61">
         <f>O26</f>
-        <v>1870.32</v>
+        <v>3740.64</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -1583,7 +1725,7 @@
       </c>
       <c r="D21" s="63">
         <f>H75</f>
-        <v>420.03500000000003</v>
+        <v>828.63499999999999</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
@@ -1599,11 +1741,11 @@
     </row>
     <row r="22" spans="3:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="65">
         <f>SUM(D18:D21)</f>
-        <v>4545.7049999999999</v>
+        <v>9006.9750000000004</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>19</v>
@@ -1648,7 +1790,7 @@
       </c>
       <c r="H24" s="18">
         <f>I16/H23</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>24</v>
@@ -1701,7 +1843,7 @@
       </c>
       <c r="O26" s="23">
         <f>O25*P16</f>
-        <v>1870.32</v>
+        <v>3740.64</v>
       </c>
       <c r="P26" s="22"/>
       <c r="Q26" s="14"/>
@@ -1804,7 +1946,7 @@
       </c>
       <c r="H34" s="19">
         <f>H24</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1821,7 +1963,7 @@
       </c>
       <c r="H35" s="24">
         <f>H34*H33</f>
-        <v>2032.3500000000001</v>
+        <v>4064.7000000000003</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="24"/>
@@ -1860,13 +2002,13 @@
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G38" s="46" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="H38" s="11">
         <v>0.1</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="10"/>
@@ -1878,17 +2020,17 @@
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" s="20">
         <f>H30*H24</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="9"/>
@@ -1899,11 +2041,11 @@
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G40" s="46" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="H40" s="11">
         <f>H38*H39</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>31</v>
@@ -1928,11 +2070,11 @@
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G42" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H42" s="24">
         <f>H41+H40</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1953,14 +2095,14 @@
       </c>
       <c r="H44" s="23">
         <f>H35+H42</f>
-        <v>2182.3500000000004</v>
+        <v>4364.7000000000007</v>
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="14"/>
     </row>
     <row r="47" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
+      <c r="G47" s="37" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2008,7 +2150,7 @@
       </c>
       <c r="H52" s="19">
         <f>H24*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>78</v>
@@ -2029,11 +2171,11 @@
     </row>
     <row r="54" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G54" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H54" s="47">
         <f>H52*H53</f>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="I54" s="51" t="s">
         <v>62</v>
@@ -2054,7 +2196,7 @@
       </c>
       <c r="H56" s="8">
         <f>H52*4</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2077,7 +2219,7 @@
       </c>
       <c r="H58" s="47">
         <f>H56*H57</f>
-        <v>1080</v>
+        <v>2160</v>
       </c>
       <c r="I58" s="51" t="s">
         <v>62</v>
@@ -2098,7 +2240,7 @@
       </c>
       <c r="H60" s="8">
         <f>H14</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>68</v>
@@ -2123,7 +2265,7 @@
       </c>
       <c r="H62" s="47">
         <f>H61*H60</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I62" s="51" t="s">
         <v>62</v>
@@ -2144,7 +2286,7 @@
       </c>
       <c r="H64" s="8">
         <f>H52/15</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2167,7 +2309,7 @@
       </c>
       <c r="H66" s="48">
         <f>H64*H65</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I66" s="51" t="s">
         <v>62</v>
@@ -2181,7 +2323,7 @@
       </c>
       <c r="H67" s="54">
         <f>H50+H54+H58+H62+H66</f>
-        <v>1386</v>
+        <v>2748</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>75</v>
@@ -2208,7 +2350,7 @@
       </c>
       <c r="H69" s="24">
         <f>H67*H68</f>
-        <v>415.8</v>
+        <v>824.4</v>
       </c>
       <c r="I69" s="25" t="s">
         <v>31</v>
@@ -2231,14 +2373,14 @@
         <v>8.4700000000000006</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="10"/>
     </row>
     <row r="72" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G72" s="55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H72" s="49">
         <v>0.5</v>
@@ -2249,7 +2391,7 @@
     </row>
     <row r="73" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G73" s="53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H73" s="24">
         <f>H72*H71</f>
@@ -2270,11 +2412,11 @@
     </row>
     <row r="75" spans="7:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G75" s="56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H75" s="57">
         <f>H69+H73</f>
-        <v>420.03500000000003</v>
+        <v>828.63499999999999</v>
       </c>
       <c r="I75" s="22" t="s">
         <v>31</v>
@@ -2333,6 +2475,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1" location="/estimate" xr:uid="{3AEFA067-BC18-5E44-ABBB-41E25469FAFC}"/>
+    <hyperlink ref="M10" r:id="rId2" xr:uid="{B0330316-4E7C-1740-82AD-07C2A4807A75}"/>
+    <hyperlink ref="G47" r:id="rId3" xr:uid="{6DE2C841-F06D-1346-A281-96798EE66AD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2343,7 +2487,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2354,51 +2498,51 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="C3" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="9">
         <f>'EKS-MN-Fargate'!H14*2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="73">
+        <v>95</v>
+      </c>
+      <c r="D5" s="72">
         <v>20</v>
       </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="9">
         <f>D4*D5</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="73">
+        <v>96</v>
+      </c>
+      <c r="D7" s="72">
         <v>0.4</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2407,11 +2551,11 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="9">
         <f>D6*D7</f>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>22</v>
@@ -2419,22 +2563,22 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="67">
         <v>0.1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="41">
         <f>D8*D9</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>31</v>
@@ -2447,7 +2591,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="67">
         <v>0</v>
@@ -2461,14 +2605,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="67">
         <v>0</v>
@@ -2477,13 +2621,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="67">
         <v>0.09</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -2493,16 +2637,16 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="73">
+        <v>105</v>
+      </c>
+      <c r="D18" s="72">
         <v>0</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="67">
         <f>D16*D18</f>
@@ -2519,11 +2663,11 @@
     </row>
     <row r="21" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" s="23">
         <f>D10+D12+D19</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -2537,17 +2681,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FEAC72-BD1E-8343-A172-43BB1DB1C855}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
     <col min="9" max="9" width="30.5" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
@@ -2555,34 +2699,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="D3" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
       <c r="G3" s="9"/>
+      <c r="H3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="70">
-        <v>3000</v>
+        <v>109</v>
+      </c>
+      <c r="E4" s="72">
+        <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="G4" s="9"/>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="75">
+        <f>E4*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="L5" s="44"/>
     </row>
@@ -2593,22 +2748,25 @@
       <c r="E6" s="67"/>
       <c r="F6" s="10"/>
       <c r="G6" s="9"/>
+      <c r="H6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D7" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="75">
+      <c r="D7" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="74">
         <v>0.57999999999999996</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" s="9">
         <v>730</v>
@@ -2618,7 +2776,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="69">
         <f>E7*E8</f>
@@ -2637,7 +2795,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
@@ -2647,7 +2805,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E12" s="41">
         <f>E11*E9</f>
@@ -2666,7 +2824,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
@@ -2674,7 +2832,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E15" s="67">
         <v>0.1</v>
@@ -2686,10 +2844,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E16" s="68">
-        <f>E4</f>
+        <f>E5</f>
         <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2699,7 +2857,7 @@
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="41">
         <f>E15*E16</f>
@@ -2712,129 +2870,140 @@
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="10"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="73">
-        <v>100</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="D19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="72">
+        <v>4</v>
+      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D20" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="73">
-        <v>400</v>
+        <v>121</v>
+      </c>
+      <c r="E20" s="72">
+        <v>200</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D21" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="9">
-        <f>E19+E20</f>
-        <v>500</v>
-      </c>
-      <c r="F21" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="E21" s="51">
+        <f>E19*E20</f>
+        <v>800</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D22" s="45" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="E22" s="9">
-        <v>730</v>
+        <f>E20+E21</f>
+        <v>1000</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D23" s="45" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="E23" s="9">
-        <v>60</v>
+        <v>730</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D24" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E24" s="9">
         <v>60</v>
       </c>
       <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D25" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="68">
-        <f>E24*E23*E22</f>
-        <v>2628000</v>
+        <v>126</v>
+      </c>
+      <c r="E25" s="9">
+        <v>60</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D26" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="68">
+        <f>E25*E24*E23</f>
+        <v>2628000</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D27" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="91">
+        <f>E22*E26</f>
+        <v>2628000000</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="15"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D29" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="70">
+        <f>(E29*E27)/1000000</f>
+        <v>525.6</v>
+      </c>
+      <c r="F30" s="71"/>
+    </row>
+    <row r="31" spans="4:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="68">
-        <f>E21*E25</f>
-        <v>1314000000</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="15"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D29" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="71">
-        <f>(E28*E26)/1000000</f>
-        <v>262.8</v>
-      </c>
-      <c r="F29" s="72"/>
-    </row>
-    <row r="30" spans="4:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="23">
-        <f>E12+E17+E29</f>
-        <v>1409.6</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="E31" s="23">
+        <f>E12+E17+E30</f>
+        <v>1672.4</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2850,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7354F3B-25F1-E64F-B0FF-D148B7F08A99}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2863,67 +3032,67 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="D3" s="66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="76">
+        <v>94</v>
+      </c>
+      <c r="E4" s="75">
         <f>('EKS-MN-Fargate'!H14)*2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" s="9">
         <f>E4/5</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="79">
+        <v>134</v>
+      </c>
+      <c r="E6" s="78">
         <f>E4*3</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" s="9">
         <f>E4*3</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
@@ -2933,15 +3102,15 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="79">
+        <v>137</v>
+      </c>
+      <c r="E9" s="82">
         <f>E8+E7+E6</f>
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2952,21 +3121,21 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E12" s="25">
-        <f>E11*E9</f>
-        <v>122</v>
+        <f>E11</f>
+        <v>1</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
@@ -2979,7 +3148,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E14" s="9">
         <v>5</v>
@@ -2988,10 +3157,10 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D15" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="77">
+      <c r="D15" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="76">
         <f>E14*E8</f>
         <v>5</v>
       </c>
@@ -3000,18 +3169,18 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" s="25">
         <f>E12+E15</f>
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E17" s="67">
         <v>0.4</v>
@@ -3023,11 +3192,11 @@
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D18" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E18" s="41">
         <f>E16*E17</f>
-        <v>50.800000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>31</v>
@@ -3042,27 +3211,27 @@
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D20" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="87">
         <v>2</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="D22" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="88">
         <f>E21*30</f>
         <v>60</v>
       </c>
@@ -3072,12 +3241,12 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D23" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="81">
+      <c r="D23" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="90">
         <f>E12*E22</f>
-        <v>7320</v>
+        <v>60</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>31</v>
@@ -3092,7 +3261,7 @@
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D25" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
@@ -3100,7 +3269,7 @@
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D26" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E26" s="9">
         <v>24</v>
@@ -3110,7 +3279,7 @@
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D27" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E27" s="9">
         <f>E26*30</f>
@@ -3121,10 +3290,10 @@
       <c r="H27" s="67"/>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D28" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="78">
+      <c r="D28" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="77">
         <f>E27*E15</f>
         <v>3600</v>
       </c>
@@ -3135,11 +3304,11 @@
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D29" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="81">
+        <v>153</v>
+      </c>
+      <c r="E29" s="80">
         <f>E28+E23</f>
-        <v>10920</v>
+        <v>3660</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>31</v>
@@ -3148,7 +3317,7 @@
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D30" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E30" s="67">
         <v>0.05</v>
@@ -3158,11 +3327,11 @@
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D31" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E31" s="41">
         <f>(E29*E30)/10000</f>
-        <v>5.4600000000000003E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>31</v>
@@ -3176,14 +3345,14 @@
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="23">
+      <c r="D33" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="84">
         <f>E18+E31</f>
-        <v>50.854600000000005</v>
-      </c>
-      <c r="F33" s="14" t="s">
+        <v>2.4183000000000003</v>
+      </c>
+      <c r="F33" s="85" t="s">
         <v>31</v>
       </c>
       <c r="G33" s="9"/>
@@ -3423,4 +3592,408 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF15AAF-E904-8C47-AE6C-55827B978540}">
+  <dimension ref="D3:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A58C9A6-9E20-1F44-B4B2-28DB7B40CF48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5C6502-815E-7C48-80CE-920ABDAD32A3}">
+  <dimension ref="C2:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="3:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="C3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="3:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="C4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="47">
+        <v>24</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="19" t="e">
+        <f>#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="47" t="e">
+        <f>D7*D8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="8" t="e">
+        <f>D7*4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="47" t="e">
+        <f>D11*D12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="47" t="e">
+        <f>D16*D15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="8" t="e">
+        <f>D7/15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="48" t="e">
+        <f>D19*D20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="54" t="e">
+        <f>D5+D9+D13+D17+D21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="24" t="e">
+        <f>D22*D23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="45"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="24">
+        <f>D27*D26</f>
+        <v>4.2350000000000003</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="45"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="3:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="57" t="e">
+        <f>D24+D28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="3:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="C31" s="34"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3AE8099A-5C9D-0B4D-99DE-66F851F1C3AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>